--- a/grubric/STT5811GRUBRIC.xlsx
+++ b/grubric/STT5811GRUBRIC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25460" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="84" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,13 +84,13 @@
     <t>Clarity</t>
   </si>
   <si>
-    <t>Few error of grammar and usage; any minor errors do not interfere with meaning.  Language style and word choice are highly effective and enhance meaning.  Style and word choice are appropriate for the assignment.</t>
-  </si>
-  <si>
-    <t>Some erros of grammar and usage; errors do not interfere with meaning.  Language style and word choice are for the most part effective and appropriate for the assignment.</t>
-  </si>
-  <si>
     <t>Major errors of grammar and usage make meaning unclear.  Language style and word choice are ineffective and/or inappropriate.</t>
+  </si>
+  <si>
+    <t>Few errors of grammar and usage; any minor errors do not interfere with meaning.  Language style and word choice are highly effective and enhance meaning.  Style and word choice are appropriate for the assignment.</t>
+  </si>
+  <si>
+    <t>Some errors of grammar and usage; errors do not interfere with meaning.  Language style and word choice are for the most part effective and appropriate for the assignment.</t>
   </si>
 </sst>
 </file>
@@ -182,6 +182,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -512,19 +517,19 @@
   </sheetPr>
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.796875" customWidth="1"/>
+    <col min="4" max="4" width="46.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,10 +540,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="75">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -552,12 +557,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" ht="135">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -571,12 +576,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="90">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -590,12 +595,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="45">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -609,23 +614,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="60">
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
